--- a/DataGeneratorCsharp/HeartRateSet1.xlsx
+++ b/DataGeneratorCsharp/HeartRateSet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Osefia\Desktop\DataGeneratorAPPS\DataGeneratorAPPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan Osefia\Desktop\DataGeneratorC#\DataGeneratorCsharp\DataGeneratorCsharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2746FD1-2724-4F3B-B977-21CA4AC415B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9201F7-D642-41B1-BCE5-F3A0B1F0ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-600" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="142">
   <si>
     <t>C</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>SensorId</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +815,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>140</v>
       </c>
